--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269458.1566680319</v>
+        <v>-270236.4333196481</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3648562.622721713</v>
+        <v>3648562.622721708</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.334965525335</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>276.3462824830167</v>
@@ -1376,19 +1376,19 @@
         <v>267.3275865275447</v>
       </c>
       <c r="E11" t="n">
-        <v>289.0697240974502</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>116.1084146458598</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>309.6000006915977</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.16062625453681</v>
+        <v>47.16062625453682</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49012359028566</v>
+        <v>70.49012359028568</v>
       </c>
       <c r="T11" t="n">
         <v>117.8309988535884</v>
@@ -1427,16 +1427,16 @@
         <v>150.5223597343418</v>
       </c>
       <c r="V11" t="n">
-        <v>231.8413427655141</v>
+        <v>103.9330060420541</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>58.31849743395088</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>43.78959124619351</v>
       </c>
       <c r="F12" t="n">
-        <v>42.19058894490151</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>25.36552731156815</v>
+        <v>98.88693303288757</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I12" t="n">
-        <v>57.10960200584134</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.95167640003204</v>
+        <v>79.95167640003206</v>
       </c>
       <c r="C13" t="n">
-        <v>66.15167124543252</v>
+        <v>66.15167124543254</v>
       </c>
       <c r="D13" t="n">
-        <v>49.77303564301091</v>
+        <v>49.77303564301093</v>
       </c>
       <c r="E13" t="n">
-        <v>48.72078549879036</v>
+        <v>48.72078549879038</v>
       </c>
       <c r="F13" t="n">
-        <v>49.18770982697667</v>
+        <v>49.18770982697669</v>
       </c>
       <c r="G13" t="n">
-        <v>65.20457374105993</v>
+        <v>65.20457374105995</v>
       </c>
       <c r="H13" t="n">
-        <v>53.7183587755172</v>
+        <v>53.71835877551721</v>
       </c>
       <c r="I13" t="n">
-        <v>33.23895922465154</v>
+        <v>33.23895922465155</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.6650546039837</v>
+        <v>34.66505460398371</v>
       </c>
       <c r="S13" t="n">
-        <v>105.3110991589709</v>
+        <v>105.311099158971</v>
       </c>
       <c r="T13" t="n">
-        <v>127.9773501512071</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U13" t="n">
         <v>182.5361345833454</v>
@@ -1607,25 +1607,25 @@
         <v>288.334965525335</v>
       </c>
       <c r="C14" t="n">
-        <v>276.3462824830168</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>289.0697240974502</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.36846783919057</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.8381768654981</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.16062625453685</v>
+        <v>47.16062625453681</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49012359028571</v>
+        <v>70.49012359028565</v>
       </c>
       <c r="T14" t="n">
         <v>117.8309988535884</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V14" t="n">
         <v>231.8413427655141</v>
@@ -1673,7 +1673,7 @@
         <v>276.4417004762176</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.8382982724164</v>
+        <v>159.4528591453138</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.4689134714218</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>58.31849743395091</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>43.7895912461935</v>
       </c>
       <c r="F15" t="n">
-        <v>31.57872147212046</v>
+        <v>31.57872147212042</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1336659090721</v>
+        <v>41.77733102704632</v>
       </c>
       <c r="H15" t="n">
         <v>95.96820235480737</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.95167640003208</v>
+        <v>79.95167640003204</v>
       </c>
       <c r="C16" t="n">
-        <v>66.15167124543257</v>
+        <v>66.15167124543252</v>
       </c>
       <c r="D16" t="n">
-        <v>49.77303564301096</v>
+        <v>49.77303564301091</v>
       </c>
       <c r="E16" t="n">
-        <v>48.72078549879041</v>
+        <v>48.72078549879036</v>
       </c>
       <c r="F16" t="n">
-        <v>49.18770982697671</v>
+        <v>49.18770982697667</v>
       </c>
       <c r="G16" t="n">
-        <v>65.20457374105997</v>
+        <v>65.20457374105995</v>
       </c>
       <c r="H16" t="n">
-        <v>53.71835877551724</v>
+        <v>53.71835877551719</v>
       </c>
       <c r="I16" t="n">
-        <v>33.23895922465158</v>
+        <v>33.23895922465154</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66505460398374</v>
+        <v>34.66505460398371</v>
       </c>
       <c r="S16" t="n">
-        <v>105.311099158971</v>
+        <v>105.3110991589709</v>
       </c>
       <c r="T16" t="n">
         <v>127.9773501512072</v>
       </c>
       <c r="U16" t="n">
-        <v>182.5361345833455</v>
+        <v>182.5361345833454</v>
       </c>
       <c r="V16" t="n">
-        <v>156.3598127996577</v>
+        <v>156.3598127996576</v>
       </c>
       <c r="W16" t="n">
         <v>181.5266988702709</v>
       </c>
       <c r="X16" t="n">
-        <v>127.1718008660741</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y16" t="n">
         <v>118.0466686221417</v>
@@ -1847,13 +1847,13 @@
         <v>190.3661291328361</v>
       </c>
       <c r="D17" t="n">
-        <v>181.347433177364</v>
+        <v>181.3474331773641</v>
       </c>
       <c r="E17" t="n">
         <v>203.0895707472696</v>
       </c>
       <c r="F17" t="n">
-        <v>222.2613868352467</v>
+        <v>222.2613868352463</v>
       </c>
       <c r="G17" t="n">
         <v>223.6198473414171</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.85084550340773</v>
+        <v>31.85084550340774</v>
       </c>
       <c r="U17" t="n">
-        <v>64.54220638416109</v>
+        <v>64.5422063841611</v>
       </c>
       <c r="V17" t="n">
-        <v>145.8611894153334</v>
+        <v>145.8611894153335</v>
       </c>
       <c r="W17" t="n">
-        <v>171.1612888932903</v>
+        <v>171.1612888932904</v>
       </c>
       <c r="X17" t="n">
-        <v>190.4615471260369</v>
+        <v>190.461547126037</v>
       </c>
       <c r="Y17" t="n">
         <v>201.8581449222357</v>
@@ -1929,10 +1929,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>47.12157984212944</v>
       </c>
       <c r="G18" t="n">
         <v>127.1336659090721</v>
@@ -1941,7 +1941,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I18" t="n">
-        <v>57.10960200584134</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.5589030715301</v>
       </c>
       <c r="T18" t="n">
         <v>185.5586142282266</v>
@@ -1980,7 +1980,7 @@
         <v>216.2896109863653</v>
       </c>
       <c r="V18" t="n">
-        <v>122.8693633399192</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>136.8584478420328</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.6722016794433</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.0070978221555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.33094580879029</v>
+        <v>19.33094580879032</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9971968010265</v>
+        <v>229.7454887487112</v>
       </c>
       <c r="U19" t="n">
-        <v>96.55598123316477</v>
+        <v>96.5559812331648</v>
       </c>
       <c r="V19" t="n">
-        <v>70.37965944947697</v>
+        <v>70.379659449477</v>
       </c>
       <c r="W19" t="n">
-        <v>95.54654552009023</v>
+        <v>95.54654552009026</v>
       </c>
       <c r="X19" t="n">
-        <v>41.19164751589335</v>
+        <v>41.19164751589338</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.06651527196104</v>
+        <v>32.06651527196107</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.3548121751544</v>
+        <v>202.3548121751543</v>
       </c>
       <c r="C20" t="n">
         <v>190.3661291328361</v>
@@ -2096,7 +2096,7 @@
         <v>223.6198473414171</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8580235153175</v>
+        <v>135.8580235153174</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.85084550340777</v>
+        <v>31.85084550340774</v>
       </c>
       <c r="U20" t="n">
-        <v>64.54220638416113</v>
+        <v>64.5422063841611</v>
       </c>
       <c r="V20" t="n">
         <v>145.8611894153335</v>
       </c>
       <c r="W20" t="n">
-        <v>171.1612888932909</v>
+        <v>171.1612888932904</v>
       </c>
       <c r="X20" t="n">
         <v>190.461547126037</v>
       </c>
       <c r="Y20" t="n">
-        <v>201.8581449222358</v>
+        <v>201.8581449222357</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2169,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>124.6657182623114</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>57.10960200584134</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>216.2896109863653</v>
       </c>
       <c r="V21" t="n">
-        <v>38.36337437846478</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>137.7583899496737</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.33094580879035</v>
+        <v>19.33094580879032</v>
       </c>
       <c r="T22" t="n">
-        <v>229.7454887487112</v>
+        <v>41.99719680102653</v>
       </c>
       <c r="U22" t="n">
-        <v>96.55598123316483</v>
+        <v>249.975912883373</v>
       </c>
       <c r="V22" t="n">
-        <v>72.2584168591702</v>
+        <v>70.379659449477</v>
       </c>
       <c r="W22" t="n">
-        <v>95.54654552009029</v>
+        <v>95.54654552009026</v>
       </c>
       <c r="X22" t="n">
-        <v>41.19164751589341</v>
+        <v>41.19164751589338</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.06651527196109</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.3548121751544</v>
+        <v>202.3548121751543</v>
       </c>
       <c r="C23" t="n">
         <v>190.3661291328361</v>
@@ -2333,7 +2333,7 @@
         <v>223.6198473414171</v>
       </c>
       <c r="H23" t="n">
-        <v>135.8580235153175</v>
+        <v>135.8580235153174</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.85084550340777</v>
+        <v>31.85084550340774</v>
       </c>
       <c r="U23" t="n">
-        <v>64.54220638416113</v>
+        <v>64.5422063841611</v>
       </c>
       <c r="V23" t="n">
         <v>145.8611894153335</v>
@@ -2384,7 +2384,7 @@
         <v>190.461547126037</v>
       </c>
       <c r="Y23" t="n">
-        <v>201.8581449222358</v>
+        <v>201.8581449222357</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>24.27182831506972</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H24" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>57.10960200584134</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S24" t="n">
         <v>145.5589030715301</v>
@@ -2451,7 +2451,7 @@
         <v>185.5586142282266</v>
       </c>
       <c r="U24" t="n">
-        <v>94.62207083767709</v>
+        <v>216.2896109863653</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>153.4199316502082</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>142.886924792181</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.56148380817546</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.33094580879035</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T25" t="n">
-        <v>41.99719680102656</v>
+        <v>41.99719680102653</v>
       </c>
       <c r="U25" t="n">
-        <v>96.55598123316483</v>
+        <v>96.5559812331648</v>
       </c>
       <c r="V25" t="n">
-        <v>70.37965944947703</v>
+        <v>70.379659449477</v>
       </c>
       <c r="W25" t="n">
-        <v>95.54654552009029</v>
+        <v>95.54654552009026</v>
       </c>
       <c r="X25" t="n">
-        <v>41.19164751589341</v>
+        <v>41.19164751589338</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.06651527196109</v>
+        <v>32.06651527196107</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I26" t="n">
-        <v>47.16062625453685</v>
+        <v>47.16062625453684</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.49012359028569</v>
+        <v>70.49012359028568</v>
       </c>
       <c r="T26" t="n">
         <v>117.8309988535884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.95167640003208</v>
+        <v>79.95167640003207</v>
       </c>
       <c r="C28" t="n">
-        <v>66.15167124543257</v>
+        <v>66.15167124543255</v>
       </c>
       <c r="D28" t="n">
-        <v>49.77303564301096</v>
+        <v>49.77303564301094</v>
       </c>
       <c r="E28" t="n">
-        <v>48.72078549879041</v>
+        <v>48.72078549879039</v>
       </c>
       <c r="F28" t="n">
-        <v>49.18770982697671</v>
+        <v>49.1877098269767</v>
       </c>
       <c r="G28" t="n">
-        <v>65.20457374105999</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71835877551723</v>
+        <v>53.71835877551722</v>
       </c>
       <c r="I28" t="n">
-        <v>33.23895922465158</v>
+        <v>33.23895922465157</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66505460398375</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S28" t="n">
         <v>105.311099158971</v>
@@ -2776,7 +2776,7 @@
         <v>181.5266988702709</v>
       </c>
       <c r="X28" t="n">
-        <v>127.1718008660741</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y28" t="n">
         <v>118.0466686221417</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.49012359028569</v>
+        <v>70.49012359028568</v>
       </c>
       <c r="T29" t="n">
         <v>117.8309988535884</v>
@@ -3047,7 +3047,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I32" t="n">
-        <v>47.16062625453684</v>
+        <v>47.16062625453685</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49012359028568</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T32" t="n">
         <v>117.8309988535884</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.95167640003207</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C34" t="n">
-        <v>66.15167124543255</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D34" t="n">
-        <v>49.77303564301094</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E34" t="n">
-        <v>48.72078549879039</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F34" t="n">
-        <v>49.1877098269767</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20457374105997</v>
+        <v>65.20457374105999</v>
       </c>
       <c r="H34" t="n">
-        <v>53.71835877551722</v>
+        <v>53.71835877551723</v>
       </c>
       <c r="I34" t="n">
-        <v>33.23895922465157</v>
+        <v>33.23895922465158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66505460398373</v>
+        <v>34.66505460398375</v>
       </c>
       <c r="S34" t="n">
         <v>105.311099158971</v>
@@ -3250,7 +3250,7 @@
         <v>181.5266988702709</v>
       </c>
       <c r="X34" t="n">
-        <v>127.171800866074</v>
+        <v>127.1718008660741</v>
       </c>
       <c r="Y34" t="n">
         <v>118.0466686221417</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C35" t="n">
         <v>212.1077464069024</v>
@@ -3281,7 +3281,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H35" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.251587514171334</v>
+        <v>6.251587514171376</v>
       </c>
       <c r="T35" t="n">
-        <v>53.59246277747404</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U35" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V35" t="n">
         <v>167.6028066893998</v>
@@ -3332,7 +3332,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.71314032391771</v>
+        <v>15.71314032391777</v>
       </c>
       <c r="C37" t="n">
-        <v>1.913135169318195</v>
+        <v>1.913135169318252</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.343952512574531</v>
+        <v>0.966037664945665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.07256308285662</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T37" t="n">
-        <v>63.73881407509283</v>
+        <v>63.73881407509289</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2975985072311</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V37" t="n">
-        <v>92.1212767235433</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W37" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X37" t="n">
-        <v>62.93326478995968</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>58.18604739365581</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C38" t="n">
         <v>212.1077464069024</v>
@@ -3518,7 +3518,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H38" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.251587514171334</v>
+        <v>6.251587514171376</v>
       </c>
       <c r="T38" t="n">
-        <v>53.59246277747404</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U38" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V38" t="n">
         <v>167.6028066893998</v>
@@ -3569,7 +3569,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.71314032391771</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>1.913135169318195</v>
+        <v>1.913135169318252</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9660376649456082</v>
+        <v>0.966037664945665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.22746252636384</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.07256308285662</v>
+        <v>41.07256308285668</v>
       </c>
       <c r="T40" t="n">
-        <v>63.73881407509283</v>
+        <v>63.73881407509289</v>
       </c>
       <c r="U40" t="n">
-        <v>118.2975985072311</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V40" t="n">
-        <v>92.1212767235433</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2881627941566</v>
+        <v>121.666077641785</v>
       </c>
       <c r="X40" t="n">
-        <v>62.93326478995968</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.9652595409108</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C41" t="n">
         <v>212.1077464069024</v>
@@ -3755,7 +3755,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H41" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.25158751417132</v>
+        <v>6.251587514171376</v>
       </c>
       <c r="T41" t="n">
-        <v>53.59246277747405</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U41" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V41" t="n">
         <v>167.6028066893998</v>
@@ -3806,7 +3806,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.71314032391771</v>
+        <v>15.71314032391777</v>
       </c>
       <c r="C43" t="n">
-        <v>4.780392457909337</v>
+        <v>6.291050016946524</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9660376649456082</v>
+        <v>0.966037664945665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.56148380817546</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.07256308285662</v>
+        <v>41.07256308285668</v>
       </c>
       <c r="T43" t="n">
-        <v>63.73881407509283</v>
+        <v>229.7454887487112</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2975985072311</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V43" t="n">
-        <v>92.1212767235433</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W43" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X43" t="n">
-        <v>62.93326478995968</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.80813254602737</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C44" t="n">
         <v>212.1077464069024</v>
@@ -3992,7 +3992,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H44" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.251587514171334</v>
+        <v>6.251587514171391</v>
       </c>
       <c r="T44" t="n">
-        <v>53.59246277747404</v>
+        <v>53.5924627774741</v>
       </c>
       <c r="U44" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V44" t="n">
         <v>167.6028066893998</v>
@@ -4043,7 +4043,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.71314032391771</v>
+        <v>15.71314032391777</v>
       </c>
       <c r="C46" t="n">
-        <v>1.913135169318195</v>
+        <v>1.913135169318252</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9660376649456082</v>
+        <v>0.966037664945665</v>
       </c>
       <c r="H46" t="n">
-        <v>155.4864973730212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.89809214822612</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.07256308285662</v>
+        <v>45.45047793048511</v>
       </c>
       <c r="T46" t="n">
-        <v>63.73881407509283</v>
+        <v>63.73881407509289</v>
       </c>
       <c r="U46" t="n">
-        <v>118.2975985072311</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V46" t="n">
-        <v>92.1212767235433</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W46" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X46" t="n">
-        <v>62.93326478995968</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.80813254602737</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.423037012356</v>
+        <v>954.1521897968905</v>
       </c>
       <c r="C11" t="n">
-        <v>1084.285377938601</v>
+        <v>675.0145307231361</v>
       </c>
       <c r="D11" t="n">
-        <v>814.2575127592631</v>
+        <v>404.9866655437986</v>
       </c>
       <c r="E11" t="n">
-        <v>522.2678924588083</v>
+        <v>404.9866655437986</v>
       </c>
       <c r="F11" t="n">
-        <v>404.9866655437984</v>
+        <v>404.9866655437986</v>
       </c>
       <c r="G11" t="n">
-        <v>92.25939211794216</v>
+        <v>92.25939211794217</v>
       </c>
       <c r="H11" t="n">
-        <v>92.25939211794216</v>
+        <v>92.25939211794217</v>
       </c>
       <c r="I11" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J11" t="n">
-        <v>164.919138409104</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K11" t="n">
-        <v>164.919138409104</v>
+        <v>357.1492470840705</v>
       </c>
       <c r="L11" t="n">
-        <v>391.3314834412673</v>
+        <v>794.8364483901007</v>
       </c>
       <c r="M11" t="n">
-        <v>884.4924865501793</v>
+        <v>1194.480824163828</v>
       </c>
       <c r="N11" t="n">
-        <v>1364.36252187911</v>
+        <v>1674.350859492759</v>
       </c>
       <c r="O11" t="n">
-        <v>1765.247199406363</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="P11" t="n">
-        <v>2075.235537020011</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q11" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R11" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S11" t="n">
-        <v>2159.917650021222</v>
+        <v>2159.917650021223</v>
       </c>
       <c r="T11" t="n">
         <v>2040.896439058002</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.853651447557</v>
+        <v>1888.853651447556</v>
       </c>
       <c r="V11" t="n">
-        <v>1654.670476936936</v>
+        <v>1783.870817061643</v>
       </c>
       <c r="W11" t="n">
-        <v>1654.670476936936</v>
+        <v>1524.131986512682</v>
       </c>
       <c r="X11" t="n">
-        <v>1654.670476936936</v>
+        <v>1244.897945627614</v>
       </c>
       <c r="Y11" t="n">
-        <v>1654.670476936936</v>
+        <v>954.1521897968905</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>618.1176835549286</v>
+        <v>618.117683554929</v>
       </c>
       <c r="C12" t="n">
-        <v>456.4140107958833</v>
+        <v>559.210110389322</v>
       </c>
       <c r="D12" t="n">
-        <v>317.5753737860954</v>
+        <v>420.3714733795341</v>
       </c>
       <c r="E12" t="n">
-        <v>170.5473638429666</v>
+        <v>376.1395630298437</v>
       </c>
       <c r="F12" t="n">
-        <v>127.9306073329651</v>
+        <v>241.4457649797181</v>
       </c>
       <c r="G12" t="n">
-        <v>102.3088625738053</v>
+        <v>141.5599740374074</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3088625738053</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I12" t="n">
         <v>44.62239590123831</v>
@@ -5121,49 +5121,49 @@
         <v>133.6426184273641</v>
       </c>
       <c r="K12" t="n">
-        <v>412.298976652796</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="L12" t="n">
-        <v>844.230314977103</v>
+        <v>565.5739567516712</v>
       </c>
       <c r="M12" t="n">
-        <v>1396.432464254927</v>
+        <v>657.4012523553305</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.240816465907</v>
+        <v>1209.603401633155</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.882776645784</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="P12" t="n">
-        <v>2231.119795061915</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="Q12" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R12" t="n">
-        <v>2190.623425345477</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S12" t="n">
         <v>2043.59423032373</v>
       </c>
       <c r="T12" t="n">
-        <v>1856.161286658854</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U12" t="n">
-        <v>1637.686932127172</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.291309575506</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W12" t="n">
-        <v>1167.975440808816</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X12" t="n">
-        <v>970.0584526866106</v>
+        <v>970.0584526866111</v>
       </c>
       <c r="Y12" t="n">
-        <v>777.5371263361894</v>
+        <v>777.5371263361899</v>
       </c>
     </row>
     <row r="13">
@@ -5176,7 +5176,7 @@
         <v>414.3144099976416</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4945400527602</v>
+        <v>347.4945400527603</v>
       </c>
       <c r="D13" t="n">
         <v>297.2187464739613</v>
@@ -5185,13 +5185,13 @@
         <v>248.0058318287185</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3212764479339</v>
+        <v>198.321276447934</v>
       </c>
       <c r="G13" t="n">
         <v>132.4580706488835</v>
       </c>
       <c r="H13" t="n">
-        <v>78.19710218876511</v>
+        <v>78.19710218876514</v>
       </c>
       <c r="I13" t="n">
         <v>44.62239590123831</v>
@@ -5206,10 +5206,10 @@
         <v>507.8767290772419</v>
       </c>
       <c r="M13" t="n">
-        <v>766.6339233993396</v>
+        <v>766.6339233993394</v>
       </c>
       <c r="N13" t="n">
-        <v>1024.86852814463</v>
+        <v>1024.868528144629</v>
       </c>
       <c r="O13" t="n">
         <v>1260.162531829993</v>
@@ -5221,7 +5221,7 @@
         <v>1539.108648437726</v>
       </c>
       <c r="R13" t="n">
-        <v>1504.093441767035</v>
+        <v>1504.093441767036</v>
       </c>
       <c r="S13" t="n">
         <v>1397.718594131711</v>
@@ -5233,16 +5233,16 @@
         <v>1084.068609551355</v>
       </c>
       <c r="V13" t="n">
-        <v>926.129404703216</v>
+        <v>926.1294047032162</v>
       </c>
       <c r="W13" t="n">
-        <v>742.7691028140534</v>
+        <v>742.7691028140537</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3127383028676</v>
+        <v>614.3127383028677</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.073679088583</v>
+        <v>495.0736790885831</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>685.7471973580482</v>
+        <v>663.3866714921512</v>
       </c>
       <c r="C14" t="n">
-        <v>406.6095382842939</v>
+        <v>384.2490124183969</v>
       </c>
       <c r="D14" t="n">
-        <v>406.6095382842939</v>
+        <v>384.2490124183969</v>
       </c>
       <c r="E14" t="n">
-        <v>406.6095382842939</v>
+        <v>92.25939211794216</v>
       </c>
       <c r="F14" t="n">
-        <v>406.6095382842939</v>
+        <v>92.25939211794216</v>
       </c>
       <c r="G14" t="n">
-        <v>316.3383586487483</v>
+        <v>92.25939211794216</v>
       </c>
       <c r="H14" t="n">
         <v>92.25939211794216</v>
@@ -5276,52 +5276,52 @@
         <v>44.62239590123831</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5285401771412</v>
+        <v>164.919138409104</v>
       </c>
       <c r="K14" t="n">
-        <v>109.5285401771412</v>
+        <v>477.4459895919362</v>
       </c>
       <c r="L14" t="n">
-        <v>547.2157414831715</v>
+        <v>915.1331908979664</v>
       </c>
       <c r="M14" t="n">
-        <v>1040.376744592083</v>
+        <v>1408.294194006878</v>
       </c>
       <c r="N14" t="n">
-        <v>1520.246779921014</v>
+        <v>1888.16422933581</v>
       </c>
       <c r="O14" t="n">
-        <v>1921.131457448267</v>
+        <v>1888.16422933581</v>
       </c>
       <c r="P14" t="n">
-        <v>2231.119795061915</v>
+        <v>2198.152566949458</v>
       </c>
       <c r="Q14" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R14" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S14" t="n">
-        <v>2159.917650021222</v>
+        <v>2159.917650021223</v>
       </c>
       <c r="T14" t="n">
         <v>2040.896439058002</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.896439058002</v>
+        <v>1888.853651447556</v>
       </c>
       <c r="V14" t="n">
-        <v>1806.713264547382</v>
+        <v>1654.670476936936</v>
       </c>
       <c r="W14" t="n">
-        <v>1546.974433998421</v>
+        <v>1394.931646387975</v>
       </c>
       <c r="X14" t="n">
-        <v>1267.740393113353</v>
+        <v>1115.697605502907</v>
       </c>
       <c r="Y14" t="n">
-        <v>976.994637282629</v>
+        <v>954.6341114167319</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>704.3362036377836</v>
+        <v>618.117683554929</v>
       </c>
       <c r="C15" t="n">
-        <v>645.4286304721766</v>
+        <v>456.4140107958838</v>
       </c>
       <c r="D15" t="n">
-        <v>506.5899934623886</v>
+        <v>317.5753737860958</v>
       </c>
       <c r="E15" t="n">
-        <v>359.5619835192599</v>
+        <v>273.3434634364054</v>
       </c>
       <c r="F15" t="n">
-        <v>327.6642850625725</v>
+        <v>241.4457649797181</v>
       </c>
       <c r="G15" t="n">
         <v>199.2464407099744</v>
@@ -5358,49 +5358,49 @@
         <v>44.62239590123831</v>
       </c>
       <c r="K15" t="n">
-        <v>230.1421980020831</v>
+        <v>323.2787541266702</v>
       </c>
       <c r="L15" t="n">
-        <v>662.0735363263902</v>
+        <v>755.2100924509773</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.275685604214</v>
+        <v>1017.638270771462</v>
       </c>
       <c r="N15" t="n">
-        <v>1766.477834882038</v>
+        <v>1569.840420049286</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.119795061915</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="P15" t="n">
-        <v>2231.119795061915</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="Q15" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R15" t="n">
-        <v>2190.623425345477</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S15" t="n">
         <v>2043.59423032373</v>
       </c>
       <c r="T15" t="n">
-        <v>1856.161286658854</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U15" t="n">
-        <v>1637.686932127172</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.291309575506</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W15" t="n">
-        <v>1167.975440808816</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X15" t="n">
-        <v>970.0584526866106</v>
+        <v>970.0584526866111</v>
       </c>
       <c r="Y15" t="n">
-        <v>777.5371263361894</v>
+        <v>777.5371263361899</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.314409997642</v>
+        <v>414.3144099976416</v>
       </c>
       <c r="C16" t="n">
-        <v>347.4945400527606</v>
+        <v>347.4945400527603</v>
       </c>
       <c r="D16" t="n">
-        <v>297.2187464739617</v>
+        <v>297.2187464739613</v>
       </c>
       <c r="E16" t="n">
-        <v>248.0058318287188</v>
+        <v>248.0058318287185</v>
       </c>
       <c r="F16" t="n">
-        <v>198.3212764479343</v>
+        <v>198.321276447934</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4580706488838</v>
+        <v>132.4580706488836</v>
       </c>
       <c r="H16" t="n">
-        <v>78.19710218876516</v>
+        <v>78.19710218876511</v>
       </c>
       <c r="I16" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J16" t="n">
-        <v>104.557665211667</v>
+        <v>104.5576652116671</v>
       </c>
       <c r="K16" t="n">
-        <v>268.5689297794106</v>
+        <v>268.5689297794104</v>
       </c>
       <c r="L16" t="n">
-        <v>507.8767290772421</v>
+        <v>507.876729077242</v>
       </c>
       <c r="M16" t="n">
-        <v>766.6339233993397</v>
+        <v>766.6339233993396</v>
       </c>
       <c r="N16" t="n">
         <v>1024.86852814463</v>
@@ -5455,31 +5455,31 @@
         <v>1454.754060196291</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.108648437727</v>
+        <v>1539.108648437726</v>
       </c>
       <c r="R16" t="n">
         <v>1504.093441767036</v>
       </c>
       <c r="S16" t="n">
-        <v>1397.718594131712</v>
+        <v>1397.718594131711</v>
       </c>
       <c r="T16" t="n">
-        <v>1268.448543473927</v>
+        <v>1268.448543473926</v>
       </c>
       <c r="U16" t="n">
-        <v>1084.068609551356</v>
+        <v>1084.068609551355</v>
       </c>
       <c r="V16" t="n">
-        <v>926.1294047032166</v>
+        <v>926.1294047032161</v>
       </c>
       <c r="W16" t="n">
-        <v>742.769102814054</v>
+        <v>742.7691028140537</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3127383028681</v>
+        <v>614.3127383028676</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.0736790885835</v>
+        <v>495.0736790885831</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1020.558013695799</v>
       </c>
       <c r="D17" t="n">
-        <v>837.3787882641184</v>
+        <v>837.3787882641177</v>
       </c>
       <c r="E17" t="n">
-        <v>632.2378077113208</v>
+        <v>632.2378077113199</v>
       </c>
       <c r="F17" t="n">
-        <v>407.7313563625867</v>
+        <v>407.7313563625862</v>
       </c>
       <c r="G17" t="n">
-        <v>181.8527226843872</v>
+        <v>181.8527226843873</v>
       </c>
       <c r="H17" t="n">
         <v>44.62239590123831</v>
@@ -5519,37 +5519,37 @@
         <v>477.4459895919362</v>
       </c>
       <c r="L17" t="n">
-        <v>871.2015187701984</v>
+        <v>915.1331908979664</v>
       </c>
       <c r="M17" t="n">
-        <v>1364.36252187911</v>
+        <v>1408.294194006878</v>
       </c>
       <c r="N17" t="n">
-        <v>1364.36252187911</v>
+        <v>1674.350859492759</v>
       </c>
       <c r="O17" t="n">
-        <v>1765.247199406363</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="P17" t="n">
-        <v>2075.235537020011</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q17" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R17" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S17" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T17" t="n">
-        <v>2198.947223846352</v>
+        <v>2198.947223846353</v>
       </c>
       <c r="U17" t="n">
         <v>2133.753075983564</v>
       </c>
       <c r="V17" t="n">
-        <v>1986.418541220601</v>
+        <v>1986.4185412206</v>
       </c>
       <c r="W17" t="n">
         <v>1813.528350419297</v>
@@ -5558,7 +5558,7 @@
         <v>1621.142949281886</v>
       </c>
       <c r="Y17" t="n">
-        <v>1417.24583319882</v>
+        <v>1417.245833198819</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>909.9284028246601</v>
+        <v>618.117683554929</v>
       </c>
       <c r="C18" t="n">
-        <v>748.2247300656148</v>
+        <v>456.4140107958838</v>
       </c>
       <c r="D18" t="n">
-        <v>609.3860930558269</v>
+        <v>317.5753737860958</v>
       </c>
       <c r="E18" t="n">
-        <v>462.3580831126982</v>
+        <v>317.5753737860958</v>
       </c>
       <c r="F18" t="n">
-        <v>327.6642850625725</v>
+        <v>269.9778183900055</v>
       </c>
       <c r="G18" t="n">
-        <v>199.2464407099744</v>
+        <v>141.5599740374074</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3088625738053</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I18" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62239590123831</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="K18" t="n">
-        <v>44.62239590123831</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L18" t="n">
-        <v>476.5537342255454</v>
+        <v>844.230314977103</v>
       </c>
       <c r="M18" t="n">
-        <v>1028.755883503369</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N18" t="n">
-        <v>1580.958032781193</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.59999296107</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="P18" t="n">
-        <v>2231.119795061915</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="Q18" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R18" t="n">
-        <v>2231.119795061915</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S18" t="n">
-        <v>2231.119795061915</v>
+        <v>2043.59423032373</v>
       </c>
       <c r="T18" t="n">
-        <v>2043.68685139704</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U18" t="n">
-        <v>1825.212496865358</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V18" t="n">
-        <v>1701.102028845237</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W18" t="n">
-        <v>1459.786160078547</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X18" t="n">
-        <v>1261.869171956342</v>
+        <v>970.0584526866111</v>
       </c>
       <c r="Y18" t="n">
-        <v>1069.347845605921</v>
+        <v>777.5371263361899</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>389.2367631718375</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C19" t="n">
-        <v>389.2367631718375</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D19" t="n">
-        <v>389.2367631718375</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="E19" t="n">
-        <v>237.2277489331563</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="F19" t="n">
-        <v>180.9932017822035</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G19" t="n">
-        <v>180.9932017822035</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H19" t="n">
-        <v>180.9932017822035</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I19" t="n">
         <v>44.62239590123831</v>
@@ -5692,31 +5692,31 @@
         <v>790.316047616689</v>
       </c>
       <c r="Q19" t="n">
-        <v>790.316047616689</v>
+        <v>773.5872760932795</v>
       </c>
       <c r="R19" t="n">
-        <v>790.316047616689</v>
+        <v>773.5872760932795</v>
       </c>
       <c r="S19" t="n">
-        <v>770.7898397290221</v>
+        <v>754.0610682056125</v>
       </c>
       <c r="T19" t="n">
-        <v>728.3684288188944</v>
+        <v>521.9949179543892</v>
       </c>
       <c r="U19" t="n">
-        <v>630.8371346439804</v>
+        <v>424.4636237794752</v>
       </c>
       <c r="V19" t="n">
-        <v>559.7465695434987</v>
+        <v>353.3730586789934</v>
       </c>
       <c r="W19" t="n">
-        <v>463.2349074019934</v>
+        <v>256.8613965374881</v>
       </c>
       <c r="X19" t="n">
-        <v>421.6271826384648</v>
+        <v>215.2536717739594</v>
       </c>
       <c r="Y19" t="n">
-        <v>389.2367631718375</v>
+        <v>182.8632523073321</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.847033021895</v>
+        <v>1212.847033021896</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.558013695798</v>
+        <v>1020.558013695799</v>
       </c>
       <c r="D20" t="n">
-        <v>837.3787882641168</v>
+        <v>837.3787882641179</v>
       </c>
       <c r="E20" t="n">
-        <v>632.2378077113192</v>
+        <v>632.2378077113203</v>
       </c>
       <c r="F20" t="n">
-        <v>407.7313563625851</v>
+        <v>407.7313563625862</v>
       </c>
       <c r="G20" t="n">
         <v>181.8527226843873</v>
@@ -5753,49 +5753,49 @@
         <v>164.919138409104</v>
       </c>
       <c r="K20" t="n">
-        <v>477.4459895919362</v>
+        <v>164.919138409104</v>
       </c>
       <c r="L20" t="n">
-        <v>701.3198210549156</v>
+        <v>602.6063397151344</v>
       </c>
       <c r="M20" t="n">
-        <v>1194.480824163827</v>
+        <v>1095.767342824046</v>
       </c>
       <c r="N20" t="n">
-        <v>1674.350859492758</v>
+        <v>1575.637378152977</v>
       </c>
       <c r="O20" t="n">
-        <v>2075.235537020011</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P20" t="n">
-        <v>2075.235537020011</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q20" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R20" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S20" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T20" t="n">
         <v>2198.947223846352</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.753075983563</v>
+        <v>2133.753075983564</v>
       </c>
       <c r="V20" t="n">
         <v>1986.4185412206</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.528350419296</v>
+        <v>1813.528350419297</v>
       </c>
       <c r="X20" t="n">
-        <v>1621.142949281885</v>
+        <v>1621.142949281886</v>
       </c>
       <c r="Y20" t="n">
-        <v>1417.245833198818</v>
+        <v>1417.245833198819</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>909.9284028246601</v>
+        <v>618.117683554929</v>
       </c>
       <c r="C21" t="n">
-        <v>748.2247300656148</v>
+        <v>456.4140107958838</v>
       </c>
       <c r="D21" t="n">
-        <v>609.3860930558269</v>
+        <v>317.5753737860958</v>
       </c>
       <c r="E21" t="n">
-        <v>462.3580831126982</v>
+        <v>170.5473638429671</v>
       </c>
       <c r="F21" t="n">
-        <v>327.6642850625725</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G21" t="n">
-        <v>199.2464407099744</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3088625738053</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I21" t="n">
         <v>44.62239590123831</v>
@@ -5835,46 +5835,46 @@
         <v>412.298976652796</v>
       </c>
       <c r="L21" t="n">
-        <v>844.230314977103</v>
+        <v>412.298976652796</v>
       </c>
       <c r="M21" t="n">
-        <v>854.0386671880829</v>
+        <v>657.4012523553305</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.240816465907</v>
+        <v>1209.603401633155</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.882776645784</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="P21" t="n">
-        <v>2231.119795061915</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="Q21" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R21" t="n">
-        <v>2190.623425345477</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S21" t="n">
         <v>2043.59423032373</v>
       </c>
       <c r="T21" t="n">
-        <v>1856.161286658854</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U21" t="n">
-        <v>1637.686932127172</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V21" t="n">
-        <v>1598.936048916602</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W21" t="n">
-        <v>1459.786160078547</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X21" t="n">
-        <v>1261.869171956342</v>
+        <v>970.0584526866111</v>
       </c>
       <c r="Y21" t="n">
-        <v>1069.347845605921</v>
+        <v>777.5371263361899</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>197.6942890734756</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C22" t="n">
-        <v>197.6942890734756</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D22" t="n">
         <v>44.62239590123831</v>
@@ -5935,25 +5935,25 @@
         <v>790.316047616689</v>
       </c>
       <c r="S22" t="n">
-        <v>770.789839729022</v>
+        <v>770.7898397290221</v>
       </c>
       <c r="T22" t="n">
-        <v>538.7236894777986</v>
+        <v>728.3684288188942</v>
       </c>
       <c r="U22" t="n">
-        <v>441.1923953028847</v>
+        <v>475.867506714477</v>
       </c>
       <c r="V22" t="n">
-        <v>368.204095445137</v>
+        <v>404.7769416139952</v>
       </c>
       <c r="W22" t="n">
-        <v>271.6924333036317</v>
+        <v>308.2652794724899</v>
       </c>
       <c r="X22" t="n">
-        <v>230.084708540103</v>
+        <v>266.6575547089612</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.6942890734756</v>
+        <v>44.62239590123831</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1212.847033021895</v>
+        <v>1212.847033021896</v>
       </c>
       <c r="C23" t="n">
-        <v>1020.558013695798</v>
+        <v>1020.558013695799</v>
       </c>
       <c r="D23" t="n">
-        <v>837.3787882641177</v>
+        <v>837.378788264118</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2378077113199</v>
+        <v>632.2378077113204</v>
       </c>
       <c r="F23" t="n">
-        <v>407.7313563625858</v>
+        <v>407.7313563625863</v>
       </c>
       <c r="G23" t="n">
         <v>181.8527226843873</v>
@@ -5987,34 +5987,34 @@
         <v>44.62239590123831</v>
       </c>
       <c r="J23" t="n">
-        <v>164.919138409104</v>
+        <v>134.2784340613172</v>
       </c>
       <c r="K23" t="n">
-        <v>164.919138409104</v>
+        <v>446.8052852441494</v>
       </c>
       <c r="L23" t="n">
-        <v>391.3314834412673</v>
+        <v>884.4924865501797</v>
       </c>
       <c r="M23" t="n">
-        <v>884.4924865501793</v>
+        <v>884.4924865501797</v>
       </c>
       <c r="N23" t="n">
-        <v>1364.36252187911</v>
+        <v>1364.362521879111</v>
       </c>
       <c r="O23" t="n">
-        <v>1765.247199406363</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P23" t="n">
-        <v>2075.235537020011</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T23" t="n">
         <v>2198.947223846352</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>781.510558472062</v>
+        <v>618.117683554929</v>
       </c>
       <c r="C24" t="n">
-        <v>619.8068857130168</v>
+        <v>593.6006852568788</v>
       </c>
       <c r="D24" t="n">
-        <v>480.9682487032288</v>
+        <v>454.7620482470909</v>
       </c>
       <c r="E24" t="n">
-        <v>333.9402387601</v>
+        <v>307.7340383039621</v>
       </c>
       <c r="F24" t="n">
-        <v>199.2464407099744</v>
+        <v>173.0402402538365</v>
       </c>
       <c r="G24" t="n">
-        <v>199.2464407099744</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3088625738053</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I24" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62239590123831</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="K24" t="n">
-        <v>323.2787541266702</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L24" t="n">
-        <v>755.2100924509773</v>
+        <v>844.230314977103</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.412241728801</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N24" t="n">
-        <v>1674.245361813031</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="O24" t="n">
-        <v>1674.245361813031</v>
+        <v>1861.074424434804</v>
       </c>
       <c r="P24" t="n">
-        <v>2034.482380229163</v>
+        <v>2221.311442850936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R24" t="n">
-        <v>2231.119795061915</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S24" t="n">
-        <v>2084.090600040168</v>
+        <v>2043.59423032373</v>
       </c>
       <c r="T24" t="n">
-        <v>1896.657656375292</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U24" t="n">
-        <v>1801.079807044305</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V24" t="n">
-        <v>1572.684184492639</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W24" t="n">
-        <v>1331.368315725949</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X24" t="n">
-        <v>1133.451327603744</v>
+        <v>970.0584526866111</v>
       </c>
       <c r="Y24" t="n">
-        <v>940.9300012533229</v>
+        <v>777.5371263361899</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.9526229640474</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C25" t="n">
-        <v>188.9526229640474</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D25" t="n">
-        <v>188.9526229640474</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="E25" t="n">
-        <v>188.9526229640474</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="F25" t="n">
-        <v>188.9526229640474</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G25" t="n">
         <v>44.62239590123831</v>
@@ -6166,31 +6166,31 @@
         <v>790.316047616689</v>
       </c>
       <c r="Q25" t="n">
-        <v>773.5872760932795</v>
+        <v>790.316047616689</v>
       </c>
       <c r="R25" t="n">
-        <v>773.5872760932795</v>
+        <v>790.316047616689</v>
       </c>
       <c r="S25" t="n">
-        <v>754.0610682056124</v>
+        <v>581.1451003879265</v>
       </c>
       <c r="T25" t="n">
-        <v>711.6396572954845</v>
+        <v>538.7236894777986</v>
       </c>
       <c r="U25" t="n">
-        <v>614.1083631205705</v>
+        <v>441.1923953028847</v>
       </c>
       <c r="V25" t="n">
-        <v>543.0177980200887</v>
+        <v>370.1018302024029</v>
       </c>
       <c r="W25" t="n">
-        <v>446.5061358785833</v>
+        <v>273.5901680608976</v>
       </c>
       <c r="X25" t="n">
-        <v>404.8984111150546</v>
+        <v>231.9824432973689</v>
       </c>
       <c r="Y25" t="n">
-        <v>372.5079916484273</v>
+        <v>199.5920238307415</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1807.042632173054</v>
+        <v>1807.042632173053</v>
       </c>
       <c r="C26" t="n">
-        <v>1527.904973099299</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D26" t="n">
-        <v>1257.877107919961</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E26" t="n">
-        <v>965.8874876195065</v>
+        <v>965.8874876195055</v>
       </c>
       <c r="F26" t="n">
-        <v>654.532396523115</v>
+        <v>654.5323965231141</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8051230972574</v>
+        <v>341.8051230972578</v>
       </c>
       <c r="H26" t="n">
         <v>117.7261565664512</v>
@@ -6227,13 +6227,13 @@
         <v>291.1363600691419</v>
       </c>
       <c r="K26" t="n">
-        <v>704.413668463503</v>
+        <v>603.6632112519741</v>
       </c>
       <c r="L26" t="n">
-        <v>1242.851326981062</v>
+        <v>1113.255374857419</v>
       </c>
       <c r="M26" t="n">
-        <v>1807.917292389389</v>
+        <v>1707.16683517786</v>
       </c>
       <c r="N26" t="n">
         <v>2287.78732771832</v>
@@ -6251,22 +6251,22 @@
         <v>3504.458017487366</v>
       </c>
       <c r="S26" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T26" t="n">
         <v>3314.234661483453</v>
       </c>
       <c r="U26" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V26" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W26" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X26" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y26" t="n">
         <v>2098.290072097634</v>
@@ -6306,13 +6306,13 @@
         <v>159.1093828758731</v>
       </c>
       <c r="K27" t="n">
-        <v>437.765741101305</v>
+        <v>159.1093828758731</v>
       </c>
       <c r="L27" t="n">
-        <v>869.6970794256122</v>
+        <v>591.0407212001802</v>
       </c>
       <c r="M27" t="n">
-        <v>1431.877093263435</v>
+        <v>1153.220735038003</v>
       </c>
       <c r="N27" t="n">
         <v>1526.880885351395</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.7811744461505</v>
+        <v>439.7811744461508</v>
       </c>
       <c r="C28" t="n">
-        <v>372.9613045012692</v>
+        <v>372.9613045012694</v>
       </c>
       <c r="D28" t="n">
-        <v>322.6855109224703</v>
+        <v>322.6855109224705</v>
       </c>
       <c r="E28" t="n">
-        <v>273.4725962772274</v>
+        <v>273.4725962772276</v>
       </c>
       <c r="F28" t="n">
-        <v>223.7880408964429</v>
+        <v>223.7880408964431</v>
       </c>
       <c r="G28" t="n">
-        <v>157.9248350973924</v>
+        <v>157.9248350973926</v>
       </c>
       <c r="H28" t="n">
         <v>103.6638666372742</v>
@@ -6382,19 +6382,19 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J28" t="n">
-        <v>130.0244296601757</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K28" t="n">
-        <v>294.035694227919</v>
+        <v>294.0356942279193</v>
       </c>
       <c r="L28" t="n">
-        <v>533.3434935257505</v>
+        <v>533.3434935257509</v>
       </c>
       <c r="M28" t="n">
-        <v>792.1006878478481</v>
+        <v>792.1006878478486</v>
       </c>
       <c r="N28" t="n">
-        <v>1050.335292593138</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O28" t="n">
         <v>1285.629296278503</v>
@@ -6421,13 +6421,13 @@
         <v>951.5961691517252</v>
       </c>
       <c r="W28" t="n">
-        <v>768.2358672625627</v>
+        <v>768.2358672625626</v>
       </c>
       <c r="X28" t="n">
         <v>639.7795027513768</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.5404435370921</v>
+        <v>520.5404435370923</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1257.877107919961</v>
       </c>
       <c r="E29" t="n">
-        <v>965.8874876195056</v>
+        <v>965.8874876195059</v>
       </c>
       <c r="F29" t="n">
-        <v>654.5323965231141</v>
+        <v>654.5323965231148</v>
       </c>
       <c r="G29" t="n">
         <v>341.8051230972574</v>
@@ -6467,22 +6467,22 @@
         <v>704.413668463503</v>
       </c>
       <c r="L29" t="n">
-        <v>1242.851326981062</v>
+        <v>1142.100869769533</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.762787301503</v>
+        <v>1736.012330089974</v>
       </c>
       <c r="N29" t="n">
-        <v>2417.383279841963</v>
+        <v>2316.632822630434</v>
       </c>
       <c r="O29" t="n">
-        <v>2890.172919668631</v>
+        <v>2818.267957369216</v>
       </c>
       <c r="P29" t="n">
-        <v>3200.161257282279</v>
+        <v>3229.006752194393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3456.795972535712</v>
+        <v>3485.641467447826</v>
       </c>
       <c r="R29" t="n">
         <v>3504.458017487366</v>
@@ -6494,16 +6494,16 @@
         <v>3314.234661483453</v>
       </c>
       <c r="U29" t="n">
-        <v>3162.191873873006</v>
+        <v>3162.191873873007</v>
       </c>
       <c r="V29" t="n">
-        <v>2928.008699362386</v>
+        <v>2928.008699362387</v>
       </c>
       <c r="W29" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X29" t="n">
-        <v>2389.035827928357</v>
+        <v>2389.035827928358</v>
       </c>
       <c r="Y29" t="n">
         <v>2098.290072097634</v>
@@ -6549,7 +6549,7 @@
         <v>869.6970794256122</v>
       </c>
       <c r="M30" t="n">
-        <v>1431.877093263435</v>
+        <v>936.4267363588574</v>
       </c>
       <c r="N30" t="n">
         <v>1526.880885351395</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7811744461509</v>
+        <v>439.781174446151</v>
       </c>
       <c r="C31" t="n">
-        <v>372.9613045012695</v>
+        <v>372.9613045012696</v>
       </c>
       <c r="D31" t="n">
-        <v>322.6855109224706</v>
+        <v>322.6855109224707</v>
       </c>
       <c r="E31" t="n">
-        <v>273.4725962772278</v>
+        <v>273.4725962772279</v>
       </c>
       <c r="F31" t="n">
-        <v>223.7880408964432</v>
+        <v>223.7880408964433</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9248350973927</v>
+        <v>157.9248350973928</v>
       </c>
       <c r="H31" t="n">
         <v>103.6638666372742</v>
@@ -6625,13 +6625,13 @@
         <v>294.0356942279193</v>
       </c>
       <c r="L31" t="n">
-        <v>533.3434935257507</v>
+        <v>533.3434935257509</v>
       </c>
       <c r="M31" t="n">
-        <v>792.1006878478481</v>
+        <v>792.1006878478485</v>
       </c>
       <c r="N31" t="n">
-        <v>1050.335292593138</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O31" t="n">
         <v>1285.629296278503</v>
@@ -6640,31 +6640,31 @@
         <v>1480.2208246448</v>
       </c>
       <c r="Q31" t="n">
-        <v>1564.575412886235</v>
+        <v>1564.575412886236</v>
       </c>
       <c r="R31" t="n">
         <v>1529.560206215545</v>
       </c>
       <c r="S31" t="n">
-        <v>1423.185358580221</v>
+        <v>1423.18535858022</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.915307922435</v>
+        <v>1293.915307922436</v>
       </c>
       <c r="U31" t="n">
         <v>1109.535373999865</v>
       </c>
       <c r="V31" t="n">
-        <v>951.5961691517255</v>
+        <v>951.5961691517257</v>
       </c>
       <c r="W31" t="n">
-        <v>768.2358672625629</v>
+        <v>768.2358672625631</v>
       </c>
       <c r="X31" t="n">
-        <v>639.7795027513771</v>
+        <v>639.7795027513773</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.5404435370924</v>
+        <v>520.5404435370925</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>1807.042632173053</v>
       </c>
       <c r="C32" t="n">
-        <v>1527.904973099299</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D32" t="n">
-        <v>1257.877107919961</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E32" t="n">
-        <v>965.8874876195059</v>
+        <v>965.8874876195055</v>
       </c>
       <c r="F32" t="n">
-        <v>654.5323965231144</v>
+        <v>654.5323965231141</v>
       </c>
       <c r="G32" t="n">
         <v>341.8051230972578</v>
@@ -6695,7 +6695,7 @@
         <v>117.7261565664512</v>
       </c>
       <c r="I32" t="n">
-        <v>70.08916034974733</v>
+        <v>70.08916034974732</v>
       </c>
       <c r="J32" t="n">
         <v>291.1363600691419</v>
@@ -6704,31 +6704,31 @@
         <v>704.413668463503</v>
       </c>
       <c r="L32" t="n">
-        <v>1214.005832068948</v>
+        <v>1142.100869769533</v>
       </c>
       <c r="M32" t="n">
-        <v>1707.16683517786</v>
+        <v>1736.012330089974</v>
       </c>
       <c r="N32" t="n">
-        <v>2287.78732771832</v>
+        <v>2316.632822630434</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.422462457102</v>
+        <v>2789.422462457101</v>
       </c>
       <c r="P32" t="n">
-        <v>3200.161257282279</v>
+        <v>3200.161257282278</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.795972535712</v>
+        <v>3456.795972535711</v>
       </c>
       <c r="R32" t="n">
         <v>3504.458017487366</v>
       </c>
       <c r="S32" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T32" t="n">
-        <v>3314.234661483453</v>
+        <v>3314.234661483452</v>
       </c>
       <c r="U32" t="n">
         <v>3162.191873873006</v>
@@ -6771,31 +6771,31 @@
         <v>224.7132051584834</v>
       </c>
       <c r="H33" t="n">
-        <v>127.7756270223144</v>
+        <v>127.7756270223143</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08916034974733</v>
+        <v>70.08916034974732</v>
       </c>
       <c r="J33" t="n">
-        <v>70.08916034974733</v>
+        <v>70.08916034974732</v>
       </c>
       <c r="K33" t="n">
-        <v>138.9527990294807</v>
+        <v>70.08916034974732</v>
       </c>
       <c r="L33" t="n">
-        <v>570.8841373537878</v>
+        <v>502.0204986740544</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.06415119161</v>
+        <v>1064.200512511877</v>
       </c>
       <c r="N33" t="n">
-        <v>1723.518300184147</v>
+        <v>1654.654661504414</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.160260364024</v>
+        <v>1991.522845531272</v>
       </c>
       <c r="P33" t="n">
-        <v>2548.397278780156</v>
+        <v>2351.759863947403</v>
       </c>
       <c r="Q33" t="n">
         <v>2548.397278780156</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.781174446151</v>
+        <v>439.7811744461505</v>
       </c>
       <c r="C34" t="n">
-        <v>372.9613045012696</v>
+        <v>372.9613045012692</v>
       </c>
       <c r="D34" t="n">
-        <v>322.6855109224707</v>
+        <v>322.6855109224703</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4725962772279</v>
+        <v>273.4725962772274</v>
       </c>
       <c r="F34" t="n">
-        <v>223.7880408964433</v>
+        <v>223.7880408964429</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9248350973928</v>
+        <v>157.9248350973924</v>
       </c>
       <c r="H34" t="n">
         <v>103.6638666372742</v>
       </c>
       <c r="I34" t="n">
-        <v>70.08916034974733</v>
+        <v>70.08916034974732</v>
       </c>
       <c r="J34" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K34" t="n">
         <v>294.0356942279193</v>
       </c>
       <c r="L34" t="n">
-        <v>533.3434935257509</v>
+        <v>533.3434935257508</v>
       </c>
       <c r="M34" t="n">
-        <v>792.1006878478481</v>
+        <v>792.1006878478483</v>
       </c>
       <c r="N34" t="n">
         <v>1050.335292593138</v>
@@ -6886,22 +6886,22 @@
         <v>1423.185358580221</v>
       </c>
       <c r="T34" t="n">
-        <v>1293.915307922436</v>
+        <v>1293.915307922435</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.535373999865</v>
+        <v>1109.535373999864</v>
       </c>
       <c r="V34" t="n">
-        <v>951.5961691517255</v>
+        <v>951.5961691517252</v>
       </c>
       <c r="W34" t="n">
-        <v>768.2358672625629</v>
+        <v>768.2358672625627</v>
       </c>
       <c r="X34" t="n">
-        <v>639.7795027513771</v>
+        <v>639.7795027513766</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.5404435370925</v>
+        <v>520.5404435370921</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.569731241903</v>
+        <v>1350.569731241902</v>
       </c>
       <c r="C35" t="n">
-        <v>1136.319482346042</v>
+        <v>1136.319482346041</v>
       </c>
       <c r="D35" t="n">
-        <v>931.1790273445972</v>
+        <v>931.1790273445968</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0768172220356</v>
+        <v>704.0768172220353</v>
       </c>
       <c r="F35" t="n">
-        <v>457.6091363035375</v>
+        <v>457.6091363035373</v>
       </c>
       <c r="G35" t="n">
         <v>209.7692730555743</v>
@@ -6944,16 +6944,16 @@
         <v>921.0885116993895</v>
       </c>
       <c r="M35" t="n">
-        <v>1414.249514808301</v>
+        <v>1182.258526621334</v>
       </c>
       <c r="N35" t="n">
-        <v>1894.119550137233</v>
+        <v>1662.128561950265</v>
       </c>
       <c r="O35" t="n">
-        <v>2295.004227664485</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P35" t="n">
-        <v>2528.88583513307</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q35" t="n">
         <v>2528.88583513307</v>
@@ -6965,10 +6965,10 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T35" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U35" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V35" t="n">
         <v>2211.986157719663</v>
@@ -7005,7 +7005,7 @@
         <v>333.6196058639953</v>
       </c>
       <c r="G36" t="n">
-        <v>205.2017615113975</v>
+        <v>205.2017615113973</v>
       </c>
       <c r="H36" t="n">
         <v>108.2641833752284</v>
@@ -7017,22 +7017,22 @@
         <v>139.5979392287872</v>
       </c>
       <c r="K36" t="n">
-        <v>418.2542974542191</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="L36" t="n">
-        <v>850.1856357785261</v>
+        <v>551.372693706702</v>
       </c>
       <c r="M36" t="n">
-        <v>1412.365649616348</v>
+        <v>1113.552707544524</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.369441704309</v>
+        <v>1704.006856537062</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.011401884186</v>
+        <v>2168.648816716939</v>
       </c>
       <c r="P36" t="n">
-        <v>2332.248420300317</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="Q36" t="n">
         <v>2528.88583513307</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.90810830053285</v>
+        <v>53.48597209080678</v>
       </c>
       <c r="C37" t="n">
-        <v>55.97564853354477</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="D37" t="n">
-        <v>55.97564853354477</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="E37" t="n">
-        <v>55.97564853354477</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="F37" t="n">
-        <v>55.97564853354477</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="G37" t="n">
         <v>50.57771670266141</v>
@@ -7120,25 +7120,25 @@
         <v>796.2713684181122</v>
       </c>
       <c r="S37" t="n">
-        <v>754.7839309606812</v>
+        <v>587.1004211893496</v>
       </c>
       <c r="T37" t="n">
-        <v>690.4012904807895</v>
+        <v>522.7177807094578</v>
       </c>
       <c r="U37" t="n">
-        <v>570.9087667361116</v>
+        <v>403.2252569647798</v>
       </c>
       <c r="V37" t="n">
-        <v>477.8569720658658</v>
+        <v>310.173462294534</v>
       </c>
       <c r="W37" t="n">
-        <v>359.3840803545966</v>
+        <v>191.7005705832647</v>
       </c>
       <c r="X37" t="n">
-        <v>295.815126021304</v>
+        <v>128.131616249972</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.77996721358105</v>
+        <v>69.35783100385503</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.569731241902</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C38" t="n">
-        <v>1136.319482346041</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D38" t="n">
-        <v>931.1790273445966</v>
+        <v>931.179027344597</v>
       </c>
       <c r="E38" t="n">
-        <v>704.0768172220352</v>
+        <v>704.0768172220354</v>
       </c>
       <c r="F38" t="n">
-        <v>457.6091363035371</v>
+        <v>457.6091363035373</v>
       </c>
       <c r="G38" t="n">
-        <v>209.7692730555742</v>
+        <v>209.7692730555743</v>
       </c>
       <c r="H38" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I38" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J38" t="n">
-        <v>50.57771670266138</v>
+        <v>170.8744592105271</v>
       </c>
       <c r="K38" t="n">
-        <v>251.410322206391</v>
+        <v>483.4013103933593</v>
       </c>
       <c r="L38" t="n">
-        <v>689.0975235124213</v>
+        <v>921.0885116993895</v>
       </c>
       <c r="M38" t="n">
-        <v>1182.258526621333</v>
+        <v>1414.249514808301</v>
       </c>
       <c r="N38" t="n">
-        <v>1662.128561950264</v>
+        <v>1894.119550137233</v>
       </c>
       <c r="O38" t="n">
-        <v>2063.013239477517</v>
+        <v>2218.897497519422</v>
       </c>
       <c r="P38" t="n">
-        <v>2373.001577091165</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="Q38" t="n">
-        <v>2528.885835133069</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="R38" t="n">
-        <v>2528.885835133069</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="S38" t="n">
-        <v>2522.57110027027</v>
+        <v>2522.571100270271</v>
       </c>
       <c r="T38" t="n">
         <v>2468.437299484943</v>
       </c>
       <c r="U38" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V38" t="n">
         <v>2211.986157719663</v>
       </c>
       <c r="W38" t="n">
-        <v>2017.134737348595</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.78810664142</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y38" t="n">
         <v>1576.92976098859</v>
@@ -7248,22 +7248,22 @@
         <v>108.2641833752284</v>
       </c>
       <c r="I39" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J39" t="n">
         <v>139.5979392287872</v>
       </c>
       <c r="K39" t="n">
-        <v>418.2542974542191</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="L39" t="n">
-        <v>850.1856357785261</v>
+        <v>571.5292775530943</v>
       </c>
       <c r="M39" t="n">
-        <v>1412.365649616348</v>
+        <v>1133.709291390917</v>
       </c>
       <c r="N39" t="n">
-        <v>1507.369441704308</v>
+        <v>1724.163440383454</v>
       </c>
       <c r="O39" t="n">
         <v>1972.011401884185</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.1298736325883</v>
+        <v>53.48597209080678</v>
       </c>
       <c r="C40" t="n">
-        <v>93.19741386560023</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="D40" t="n">
-        <v>93.19741386560023</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="E40" t="n">
-        <v>93.19741386560023</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="F40" t="n">
-        <v>93.19741386560023</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="G40" t="n">
-        <v>92.22161824444305</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="H40" t="n">
-        <v>92.22161824444305</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I40" t="n">
-        <v>92.22161824444305</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J40" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588758</v>
       </c>
       <c r="L40" t="n">
         <v>252.3958661451784</v>
@@ -7357,25 +7357,25 @@
         <v>796.2713684181122</v>
       </c>
       <c r="S40" t="n">
-        <v>754.7839309606812</v>
+        <v>754.7839309606811</v>
       </c>
       <c r="T40" t="n">
-        <v>690.4012904807895</v>
+        <v>690.4012904807893</v>
       </c>
       <c r="U40" t="n">
-        <v>570.9087667361116</v>
+        <v>570.9087667361114</v>
       </c>
       <c r="V40" t="n">
-        <v>477.8569720658658</v>
+        <v>477.8569720658655</v>
       </c>
       <c r="W40" t="n">
-        <v>359.3840803545966</v>
+        <v>354.9619441448706</v>
       </c>
       <c r="X40" t="n">
-        <v>295.815126021304</v>
+        <v>291.3929898115779</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.0017325456365</v>
+        <v>237.0413407751866</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.569731241902</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C41" t="n">
-        <v>1136.319482346041</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D41" t="n">
-        <v>931.1790273445965</v>
+        <v>931.1790273445972</v>
       </c>
       <c r="E41" t="n">
-        <v>704.0768172220351</v>
+        <v>704.0768172220356</v>
       </c>
       <c r="F41" t="n">
-        <v>457.6091363035371</v>
+        <v>457.6091363035375</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7692730555742</v>
+        <v>209.7692730555743</v>
       </c>
       <c r="H41" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I41" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J41" t="n">
-        <v>170.8744592105271</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K41" t="n">
-        <v>483.4013103933593</v>
+        <v>363.1045678854936</v>
       </c>
       <c r="L41" t="n">
-        <v>689.0975235124213</v>
+        <v>800.7917691915238</v>
       </c>
       <c r="M41" t="n">
-        <v>1182.258526621333</v>
+        <v>1293.952772300436</v>
       </c>
       <c r="N41" t="n">
-        <v>1662.128561950264</v>
+        <v>1662.128561950265</v>
       </c>
       <c r="O41" t="n">
-        <v>2063.013239477517</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P41" t="n">
-        <v>2373.001577091165</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q41" t="n">
-        <v>2528.885835133069</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="R41" t="n">
-        <v>2528.885835133069</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="S41" t="n">
-        <v>2522.57110027027</v>
+        <v>2522.571100270271</v>
       </c>
       <c r="T41" t="n">
-        <v>2468.437299484942</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U41" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V41" t="n">
         <v>2211.986157719663</v>
       </c>
       <c r="W41" t="n">
-        <v>2017.134737348595</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.78810664142</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.92976098859</v>
+        <v>1576.929760988591</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>108.2641833752284</v>
       </c>
       <c r="I42" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J42" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K42" t="n">
-        <v>50.57771670266138</v>
+        <v>329.2340749280933</v>
       </c>
       <c r="L42" t="n">
-        <v>482.5090550269685</v>
+        <v>551.3726937067015</v>
       </c>
       <c r="M42" t="n">
-        <v>1044.689068864791</v>
+        <v>1113.552707544524</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.143217857328</v>
+        <v>1704.006856537061</v>
       </c>
       <c r="O42" t="n">
-        <v>2099.785178037205</v>
+        <v>2168.648816716938</v>
       </c>
       <c r="P42" t="n">
-        <v>2460.022196453337</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="Q42" t="n">
         <v>2528.88583513307</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.8628465484549</v>
+        <v>57.90810830053231</v>
       </c>
       <c r="C43" t="n">
-        <v>204.0341672980414</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="D43" t="n">
-        <v>204.0341672980414</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="E43" t="n">
-        <v>204.0341672980414</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="F43" t="n">
-        <v>51.55351232381857</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="G43" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="H43" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I43" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J43" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588758</v>
       </c>
       <c r="L43" t="n">
         <v>252.3958661451784</v>
@@ -7588,31 +7588,31 @@
         <v>796.2713684181122</v>
       </c>
       <c r="Q43" t="n">
-        <v>779.5425968947026</v>
+        <v>796.2713684181122</v>
       </c>
       <c r="R43" t="n">
-        <v>779.5425968947026</v>
+        <v>796.2713684181122</v>
       </c>
       <c r="S43" t="n">
-        <v>738.0551594372716</v>
+        <v>754.7839309606811</v>
       </c>
       <c r="T43" t="n">
-        <v>673.6725189573799</v>
+        <v>522.7177807094577</v>
       </c>
       <c r="U43" t="n">
-        <v>554.179995212702</v>
+        <v>403.2252569647797</v>
       </c>
       <c r="V43" t="n">
-        <v>461.1282005424562</v>
+        <v>310.1734622945339</v>
       </c>
       <c r="W43" t="n">
-        <v>342.655308831187</v>
+        <v>191.7005705832646</v>
       </c>
       <c r="X43" t="n">
-        <v>279.0863544978944</v>
+        <v>128.1316162499719</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7347054615031</v>
+        <v>73.77996721358056</v>
       </c>
     </row>
     <row r="44">
@@ -7637,49 +7637,49 @@
         <v>457.6091363035371</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7692730555742</v>
+        <v>209.7692730555743</v>
       </c>
       <c r="H44" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I44" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J44" t="n">
         <v>170.8744592105271</v>
       </c>
       <c r="K44" t="n">
-        <v>251.410322206391</v>
+        <v>483.4013103933593</v>
       </c>
       <c r="L44" t="n">
-        <v>689.0975235124213</v>
+        <v>921.0885116993895</v>
       </c>
       <c r="M44" t="n">
-        <v>1182.258526621333</v>
+        <v>1182.258526621334</v>
       </c>
       <c r="N44" t="n">
-        <v>1662.128561950264</v>
+        <v>1662.128561950265</v>
       </c>
       <c r="O44" t="n">
-        <v>2063.013239477517</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P44" t="n">
-        <v>2373.001577091165</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q44" t="n">
-        <v>2528.885835133069</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="R44" t="n">
-        <v>2528.885835133069</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="S44" t="n">
-        <v>2522.57110027027</v>
+        <v>2522.571100270271</v>
       </c>
       <c r="T44" t="n">
-        <v>2468.437299484942</v>
+        <v>2468.437299484943</v>
       </c>
       <c r="U44" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V44" t="n">
         <v>2211.986157719663</v>
@@ -7722,28 +7722,28 @@
         <v>108.2641833752284</v>
       </c>
       <c r="I45" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J45" t="n">
-        <v>50.57771670266138</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="K45" t="n">
-        <v>50.57771670266138</v>
+        <v>354.7352788739488</v>
       </c>
       <c r="L45" t="n">
-        <v>482.5090550269685</v>
+        <v>354.7352788739488</v>
       </c>
       <c r="M45" t="n">
-        <v>1044.689068864791</v>
+        <v>916.9152927117711</v>
       </c>
       <c r="N45" t="n">
-        <v>1635.143217857328</v>
+        <v>1507.369441704308</v>
       </c>
       <c r="O45" t="n">
-        <v>2099.785178037205</v>
+        <v>1972.011401884185</v>
       </c>
       <c r="P45" t="n">
-        <v>2460.022196453337</v>
+        <v>2332.248420300317</v>
       </c>
       <c r="Q45" t="n">
         <v>2528.88583513307</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.5430401443634</v>
+        <v>53.48597209080678</v>
       </c>
       <c r="C46" t="n">
-        <v>208.6105803773753</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="D46" t="n">
-        <v>208.6105803773753</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="E46" t="n">
-        <v>208.6105803773753</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="F46" t="n">
-        <v>208.6105803773753</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="G46" t="n">
-        <v>207.6347847562181</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="H46" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I46" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J46" t="n">
-        <v>50.57771670266138</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588758</v>
       </c>
       <c r="L46" t="n">
         <v>252.3958661451784</v>
@@ -7825,31 +7825,31 @@
         <v>796.2713684181122</v>
       </c>
       <c r="Q46" t="n">
-        <v>781.222790490611</v>
+        <v>796.2713684181122</v>
       </c>
       <c r="R46" t="n">
-        <v>781.222790490611</v>
+        <v>796.2713684181122</v>
       </c>
       <c r="S46" t="n">
-        <v>739.7353530331801</v>
+        <v>750.3617947509555</v>
       </c>
       <c r="T46" t="n">
-        <v>675.3527125532884</v>
+        <v>685.9791542710636</v>
       </c>
       <c r="U46" t="n">
-        <v>555.8601888086105</v>
+        <v>566.4866305263857</v>
       </c>
       <c r="V46" t="n">
-        <v>462.8083941383647</v>
+        <v>473.4348358561399</v>
       </c>
       <c r="W46" t="n">
-        <v>344.3355024270954</v>
+        <v>354.9619441448706</v>
       </c>
       <c r="X46" t="n">
-        <v>280.7665480938028</v>
+        <v>123.7094800402464</v>
       </c>
       <c r="Y46" t="n">
-        <v>226.4148990574116</v>
+        <v>69.35783100385503</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463964</v>
       </c>
       <c r="K11" t="n">
-        <v>105.7053482790473</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>329.5506331844067</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>489.9063538081725</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8705,7 +8705,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>105.2187876798484</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8769,16 +8769,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177453</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3379318042945</v>
+        <v>130.312827082916</v>
       </c>
       <c r="N12" t="n">
-        <v>36.63418080666253</v>
+        <v>584.5067030964042</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.47682271038884</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>163.8755004994911</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>105.7053482790473</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8939,13 +8939,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>90.10621793727323</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>118.5506413509022</v>
+        <v>151.8508717675265</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,13 +9006,13 @@
         <v>73.99892924947514</v>
       </c>
       <c r="K15" t="n">
-        <v>249.7274786975774</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>595.3379318042945</v>
+        <v>302.6369510393051</v>
       </c>
       <c r="N15" t="n">
         <v>584.5067030964042</v>
@@ -9024,7 +9024,7 @@
         <v>50.12582305400795</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.47682271038884</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9167,19 +9167,19 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>498.5841525239006</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>83.83379433261864</v>
+        <v>352.5779008840132</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>105.2187876798484</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99892924947514</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>62.33373920177453</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3379318042945</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N18" t="n">
-        <v>584.5067030964042</v>
+        <v>307.345842773455</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>42.68570174674129</v>
       </c>
       <c r="P18" t="n">
-        <v>237.5195625498108</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.47682271038884</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,10 +9401,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>105.7053482790473</v>
       </c>
       <c r="L20" t="n">
-        <v>326.9864780640189</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
@@ -9413,10 +9413,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>281.6312899103905</v>
       </c>
       <c r="P20" t="n">
-        <v>105.2187876798484</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9483,10 +9483,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>45.79816775883322</v>
       </c>
       <c r="M21" t="n">
-        <v>47.4654095145529</v>
+        <v>285.1360393040021</v>
       </c>
       <c r="N21" t="n">
         <v>584.5067030964042</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.47682271038884</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>188.87539331179</v>
       </c>
       <c r="K23" t="n">
-        <v>105.7053482790473</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>329.5506331844067</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>86.22516615794298</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>73.99892924947514</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,19 +9723,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>595.3379318042945</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2652594665111</v>
+        <v>26.72675433092535</v>
       </c>
       <c r="O24" t="n">
-        <v>42.68570174674129</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>84.38424918612627</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177453</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>122.6901806824003</v>
+        <v>404.1612495969779</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107806</v>
       </c>
       <c r="N30" t="n">
-        <v>122.6901806824003</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10428,7 +10428,7 @@
         <v>73.99892924947514</v>
       </c>
       <c r="K33" t="n">
-        <v>131.8929701914042</v>
+        <v>62.33373920177453</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10440,13 +10440,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>382.9565947031633</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.47682271038884</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>350.0332620386951</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>341.4628356279137</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.5506413509022</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,16 +10665,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177453</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>461.7322631910704</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>122.6901806824005</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>74.47682271038884</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.31373860463964</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>308.5665659595822</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10835,13 +10835,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>418.1647506465553</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>118.5506413509022</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177453</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>122.6901806824</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>293.0371780101065</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463964</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>308.6252474135973</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>455.7285313526482</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11139,10 +11139,10 @@
         <v>73.99892924947514</v>
       </c>
       <c r="K42" t="n">
-        <v>62.33373920177453</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>270.1806109695485</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>144.0360537000181</v>
+        <v>74.47682271038884</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11297,13 +11297,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>187.054704840526</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>350.0332620386951</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>73.99892924947514</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>62.33373920177453</v>
+        <v>279.6441832877964</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>45.79816775883322</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>144.0360537000181</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F11" t="n">
-        <v>192.1331255395676</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.838176865498</v>
+        <v>221.8381768654981</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>127.90833672346</v>
       </c>
       <c r="W11" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.4417004762176</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.8382982724164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23501,16 +23501,16 @@
         <v>267.3275865275447</v>
       </c>
       <c r="E14" t="n">
-        <v>289.0697240974503</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>308.2415401854274</v>
       </c>
       <c r="G14" t="n">
-        <v>220.2315328524072</v>
+        <v>309.6000006915977</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.838176865498</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.5223597343418</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>128.3854391271026</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969472.9161814525</v>
+        <v>969472.9161814527</v>
       </c>
     </row>
     <row r="7">
@@ -26320,22 +26320,22 @@
         <v>421232.1473290172</v>
       </c>
       <c r="E2" t="n">
-        <v>368107.7389658723</v>
+        <v>368107.7389658724</v>
       </c>
       <c r="F2" t="n">
-        <v>368107.7389658717</v>
+        <v>368107.7389658722</v>
       </c>
       <c r="G2" t="n">
+        <v>422193.2332718</v>
+      </c>
+      <c r="H2" t="n">
+        <v>422193.2332718001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>422193.2332718002</v>
+      </c>
+      <c r="J2" t="n">
         <v>422193.2332718003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>422193.2332718002</v>
-      </c>
-      <c r="I2" t="n">
-        <v>422193.2332718</v>
-      </c>
-      <c r="J2" t="n">
-        <v>422193.2332718001</v>
       </c>
       <c r="K2" t="n">
         <v>422193.2332718</v>
@@ -26344,10 +26344,10 @@
         <v>422193.2332718004</v>
       </c>
       <c r="M2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718007</v>
       </c>
       <c r="N2" t="n">
-        <v>422193.2332718007</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="O2" t="n">
         <v>422193.2332718007</v>
@@ -26375,10 +26375,10 @@
         <v>362828.5755808611</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>68784.12268014456</v>
+        <v>68784.1226801445</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95920.71466492985</v>
+        <v>95920.71466492979</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68784.12268014456</v>
+        <v>68784.12268014449</v>
       </c>
       <c r="M3" t="n">
-        <v>129612.7006801888</v>
+        <v>129612.7006801889</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12630.38819785867</v>
+        <v>12630.38819785865</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>410681.9044354911</v>
       </c>
       <c r="E4" t="n">
-        <v>279027.0070681255</v>
+        <v>279027.0070681256</v>
       </c>
       <c r="F4" t="n">
-        <v>279027.0070681255</v>
+        <v>279027.0070681256</v>
       </c>
       <c r="G4" t="n">
         <v>334921.2684652061</v>
       </c>
       <c r="H4" t="n">
-        <v>334921.2684652061</v>
+        <v>334921.2684652062</v>
       </c>
       <c r="I4" t="n">
         <v>334921.2684652061</v>
@@ -26451,10 +26451,10 @@
         <v>330141.7994638877</v>
       </c>
       <c r="N4" t="n">
-        <v>330141.7994638877</v>
+        <v>330141.7994638876</v>
       </c>
       <c r="O4" t="n">
-        <v>330141.7994638877</v>
+        <v>330141.7994638876</v>
       </c>
       <c r="P4" t="n">
         <v>330141.7994638877</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45585.60330960764</v>
+        <v>45585.60330960765</v>
       </c>
       <c r="F5" t="n">
-        <v>45585.60330960764</v>
+        <v>45585.60330960765</v>
       </c>
       <c r="G5" t="n">
-        <v>52813.86882160398</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="H5" t="n">
-        <v>52813.86882160397</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="I5" t="n">
-        <v>52813.86882160397</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="J5" t="n">
-        <v>64940.34429047449</v>
+        <v>64940.3442904745</v>
       </c>
       <c r="K5" t="n">
         <v>64940.3442904745</v>
       </c>
       <c r="L5" t="n">
-        <v>64940.3442904745</v>
+        <v>64940.34429047449</v>
       </c>
       <c r="M5" t="n">
-        <v>55512.11660807205</v>
+        <v>55512.11660807204</v>
       </c>
       <c r="N5" t="n">
         <v>55512.11660807204</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23077.35710647378</v>
+        <v>-23081.72567894092</v>
       </c>
       <c r="C6" t="n">
-        <v>-23077.3571064739</v>
+        <v>-23081.72567894109</v>
       </c>
       <c r="D6" t="n">
-        <v>-23077.35710647384</v>
+        <v>-23081.72567894103</v>
       </c>
       <c r="E6" t="n">
-        <v>-319333.446992722</v>
+        <v>-319579.290148658</v>
       </c>
       <c r="F6" t="n">
-        <v>43495.12858813863</v>
+        <v>43249.28543220293</v>
       </c>
       <c r="G6" t="n">
-        <v>-34326.02669515435</v>
+        <v>-34326.02669515459</v>
       </c>
       <c r="H6" t="n">
-        <v>34458.0959849901</v>
+        <v>34458.09598498991</v>
       </c>
       <c r="I6" t="n">
-        <v>34458.09598498992</v>
+        <v>34458.09598499002</v>
       </c>
       <c r="J6" t="n">
-        <v>-67312.46984509006</v>
+        <v>-67312.46984508983</v>
       </c>
       <c r="K6" t="n">
-        <v>28608.24481983971</v>
+        <v>28608.24481983965</v>
       </c>
       <c r="L6" t="n">
-        <v>-40175.87786030444</v>
+        <v>-40175.87786030438</v>
       </c>
       <c r="M6" t="n">
-        <v>-93073.38348034813</v>
+        <v>-93073.38348034795</v>
       </c>
       <c r="N6" t="n">
-        <v>36539.317199841</v>
+        <v>36539.31719984094</v>
       </c>
       <c r="O6" t="n">
-        <v>23908.92900198236</v>
+        <v>23908.92900198235</v>
       </c>
       <c r="P6" t="n">
-        <v>36539.31719984106</v>
+        <v>36539.31719984105</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>101.768138597504</v>
       </c>
       <c r="F2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G2" t="n">
         <v>187.7482919476846</v>
@@ -26716,16 +26716,16 @@
         <v>101.7681385975039</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="N2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="O2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="P2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="F4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="G4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="H4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="I4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="J4" t="n">
         <v>876.1145043718416</v>
@@ -26817,19 +26817,19 @@
         <v>876.1145043718416</v>
       </c>
       <c r="L4" t="n">
-        <v>876.1145043718416</v>
+        <v>876.1145043718415</v>
       </c>
       <c r="M4" t="n">
         <v>632.2214587832675</v>
       </c>
       <c r="N4" t="n">
-        <v>632.2214587832673</v>
+        <v>632.2214587832675</v>
       </c>
       <c r="O4" t="n">
-        <v>632.2214587832673</v>
+        <v>632.2214587832675</v>
       </c>
       <c r="P4" t="n">
-        <v>632.2214587832673</v>
+        <v>632.2214587832675</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>101.768138597504</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>85.9801533501807</v>
+        <v>85.98015335018063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.78798524732333</v>
+        <v>15.78798524732331</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.9801533501807</v>
+        <v>85.98015335018061</v>
       </c>
       <c r="M2" t="n">
-        <v>64.2385360761143</v>
+        <v>64.23853607611431</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732333</v>
+        <v>15.78798524732331</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063628</v>
+        <v>318.3345556063626</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.8869031769048</v>
+        <v>313.886903176905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>101.768138597504</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>85.9801533501807</v>
+        <v>85.98015335018063</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732333</v>
+        <v>15.78798524732331</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F12" t="n">
-        <v>91.15627112472289</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>101.768138597504</v>
+        <v>28.24673287618457</v>
       </c>
       <c r="H12" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28281,10 +28281,10 @@
         <v>101.768138597504</v>
       </c>
       <c r="N13" t="n">
+        <v>101.7681385975035</v>
+      </c>
+      <c r="O13" t="n">
         <v>101.768138597504</v>
-      </c>
-      <c r="O13" t="n">
-        <v>101.768138597503</v>
       </c>
       <c r="P13" t="n">
         <v>101.768138597504</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>53.62465884835801</v>
       </c>
       <c r="S14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.35633488202647</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F15" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>85.35633488202582</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="17">
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>86.22528022749496</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.09140601927353</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.5589030715301</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>103.2423029862302</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>44.86136715550322</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28728,10 +28728,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>95.28364674503734</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.9727123385639</v>
@@ -28740,7 +28740,7 @@
         <v>155.4864973730212</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.0070978221555</v>
       </c>
       <c r="J19" t="n">
         <v>41.22746252636384</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.56148380817546</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.4331932014877</v>
@@ -28773,7 +28773,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="T19" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>187.7482919476846</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>8.681141807312954</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,10 +28937,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>101.1443201293493</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -29010,13 +29010,13 @@
         <v>187.7482919476846</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U22" t="n">
+        <v>34.32836029747639</v>
+      </c>
+      <c r="V22" t="n">
         <v>187.7482919476846</v>
-      </c>
-      <c r="V22" t="n">
-        <v>185.8695345379914</v>
       </c>
       <c r="W22" t="n">
         <v>187.7482919476846</v>
@@ -29025,7 +29025,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>135.8148077163851</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.09140601927353</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>121.6675401486882</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>28.29988334732784</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>24.0857875463829</v>
+        <v>166.9727123385639</v>
       </c>
       <c r="H25" t="n">
         <v>155.4864973730212</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R25" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S25" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>187.7482919476846</v>
@@ -29299,16 +29299,16 @@
         <v>101.7681385975039</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>72.63127504991382</v>
+      </c>
+      <c r="M26" t="n">
         <v>101.7681385975039</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>101.7681385975039</v>
-      </c>
-      <c r="M26" t="n">
-        <v>72.63127504991377</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>101.7681385975039</v>
@@ -29539,7 +29539,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="L29" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>101.7681385975039</v>
@@ -29548,16 +29548,16 @@
         <v>101.7681385975039</v>
       </c>
       <c r="O29" t="n">
-        <v>72.631275049914</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q29" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="R29" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991385</v>
       </c>
       <c r="S29" t="n">
         <v>101.7681385975039</v>
@@ -29776,16 +29776,16 @@
         <v>101.7681385975039</v>
       </c>
       <c r="L32" t="n">
-        <v>72.63127504991371</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N32" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="O32" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991348</v>
       </c>
       <c r="P32" t="n">
         <v>101.7681385975039</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I35" t="n">
         <v>148.9287648520408</v>
@@ -30034,25 +30034,25 @@
         <v>53.62465884835801</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>161.6287598259894</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H37" t="n">
         <v>155.4864973730212</v>
@@ -30192,25 +30192,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0066746736183</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>161.6287598259898</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I38" t="n">
         <v>148.9287648520408</v>
@@ -30271,25 +30271,25 @@
         <v>53.62465884835801</v>
       </c>
       <c r="S38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.0066746736183</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H40" t="n">
         <v>155.4864973730212</v>
@@ -30402,7 +30402,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>41.22746252636384</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0066746736183</v>
+        <v>161.6287598259899</v>
       </c>
       <c r="X40" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.84954767873489</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I41" t="n">
         <v>148.9287648520408</v>
@@ -30508,25 +30508,25 @@
         <v>53.62465884835801</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C43" t="n">
-        <v>163.1394173850272</v>
+        <v>161.62875982599</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H43" t="n">
         <v>155.4864973730212</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R43" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0066746736183</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I44" t="n">
         <v>148.9287648520408</v>
@@ -30745,25 +30745,25 @@
         <v>53.62465884835801</v>
       </c>
       <c r="S44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>155.4864973730212</v>
       </c>
       <c r="I46" t="n">
         <v>135.0070978221555</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.663391659949344</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R46" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0066746736183</v>
+        <v>161.6287598259898</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X46" t="n">
-        <v>166.0066746736183</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
   </sheetData>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5118611190563</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L11" t="n">
-        <v>228.6993384163266</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M11" t="n">
-        <v>498.1424273827393</v>
+        <v>403.6811876502296</v>
       </c>
       <c r="N11" t="n">
         <v>484.7172074029607</v>
@@ -35425,7 +35425,7 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P11" t="n">
-        <v>313.119532943079</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>157.4588465069739</v>
@@ -35489,16 +35489,16 @@
         <v>89.91941669305635</v>
       </c>
       <c r="K12" t="n">
-        <v>281.4710689145777</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>436.2942811356637</v>
       </c>
       <c r="M12" t="n">
-        <v>557.7799487654788</v>
+        <v>92.75484404410031</v>
       </c>
       <c r="N12" t="n">
-        <v>9.907426475737191</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="O12" t="n">
         <v>469.3353133130071</v>
@@ -35507,7 +35507,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.54067607114014</v>
+        <v>60.54067607114013</v>
       </c>
       <c r="K13" t="n">
         <v>165.6679440078215</v>
@@ -35574,19 +35574,19 @@
         <v>241.7250497957895</v>
       </c>
       <c r="M13" t="n">
-        <v>261.3709033556542</v>
+        <v>261.3709033556541</v>
       </c>
       <c r="N13" t="n">
-        <v>260.8430350962525</v>
+        <v>260.843035096252</v>
       </c>
       <c r="O13" t="n">
-        <v>237.6707107932965</v>
+        <v>237.6707107932975</v>
       </c>
       <c r="P13" t="n">
         <v>196.5570993598963</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.20665478932852</v>
+        <v>85.2066547893285</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>65.56176189485143</v>
+        <v>121.5118611190563</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L14" t="n">
         <v>442.1082841475054</v>
@@ -35659,13 +35659,13 @@
         <v>484.7172074029607</v>
       </c>
       <c r="O14" t="n">
-        <v>404.9340177042957</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>313.119532943079</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.30023041662433</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>187.3937394958029</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L15" t="n">
         <v>436.2942811356637</v>
       </c>
       <c r="M15" t="n">
-        <v>557.7799487654788</v>
+        <v>265.0789680004895</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="O15" t="n">
         <v>469.3353133130071</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.5406760711401</v>
+        <v>60.54067607114014</v>
       </c>
       <c r="K16" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L16" t="n">
-        <v>241.7250497957894</v>
+        <v>241.7250497957895</v>
       </c>
       <c r="M16" t="n">
         <v>261.3709033556541</v>
@@ -35820,10 +35820,10 @@
         <v>237.6707107932975</v>
       </c>
       <c r="P16" t="n">
-        <v>196.5570993598963</v>
+        <v>196.5570993598964</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.20665478932847</v>
+        <v>85.20665478932852</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>315.6836880634668</v>
       </c>
       <c r="L17" t="n">
-        <v>397.7328577558204</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M17" t="n">
         <v>498.1424273827393</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>268.7441065513945</v>
       </c>
       <c r="O17" t="n">
         <v>404.9340177042957</v>
       </c>
       <c r="P17" t="n">
-        <v>313.119532943079</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>157.4588465069739</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.91941669305635</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L18" t="n">
         <v>436.2942811356637</v>
       </c>
       <c r="M18" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7799487654788</v>
+        <v>280.6190884425297</v>
       </c>
       <c r="O18" t="n">
-        <v>469.3353133130071</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>187.3937394958028</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>121.5118611190563</v>
       </c>
       <c r="K20" t="n">
-        <v>315.6836880634668</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1351832959388</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M20" t="n">
         <v>498.1424273827393</v>
@@ -36133,10 +36133,10 @@
         <v>484.7172074029607</v>
       </c>
       <c r="O20" t="n">
-        <v>404.9340177042957</v>
+        <v>191.5250719731173</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q20" t="n">
         <v>157.4588465069739</v>
@@ -36203,13 +36203,13 @@
         <v>281.4710689145777</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2942811356637</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.907426475737191</v>
+        <v>247.5780562651863</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="O21" t="n">
         <v>469.3353133130071</v>
@@ -36218,7 +36218,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5118611190563</v>
+        <v>90.56165470715041</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L23" t="n">
-        <v>228.6993384163266</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M23" t="n">
-        <v>498.1424273827393</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>484.7172074029607</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>89.91941669305635</v>
       </c>
       <c r="K24" t="n">
         <v>281.4710689145777</v>
@@ -36443,19 +36443,19 @@
         <v>436.2942811356637</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7799487654788</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="N24" t="n">
-        <v>370.5385051355858</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>469.3353133130071</v>
       </c>
       <c r="P24" t="n">
         <v>363.8757761779104</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.623651346215</v>
+        <v>9.907426475737422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>223.2799997165602</v>
       </c>
       <c r="K26" t="n">
-        <v>417.4518266609707</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L26" t="n">
-        <v>543.8764227450093</v>
+        <v>514.7395591974192</v>
       </c>
       <c r="M26" t="n">
-        <v>570.7737024326531</v>
+        <v>599.9105659802432</v>
       </c>
       <c r="N26" t="n">
-        <v>484.7172074029607</v>
+        <v>586.4853460004647</v>
       </c>
       <c r="O26" t="n">
         <v>506.7021563017996</v>
@@ -36616,7 +36616,7 @@
         <v>259.2269851044778</v>
       </c>
       <c r="R26" t="n">
-        <v>48.14347974914592</v>
+        <v>48.14347974914594</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>89.91941669305635</v>
       </c>
       <c r="K27" t="n">
-        <v>281.4710689145777</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>436.2942811356637</v>
@@ -36683,7 +36683,7 @@
         <v>567.8585998361842</v>
       </c>
       <c r="N27" t="n">
-        <v>95.96342635147491</v>
+        <v>377.4344952660526</v>
       </c>
       <c r="O27" t="n">
         <v>469.3353133130071</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.5406760711401</v>
+        <v>60.54067607114011</v>
       </c>
       <c r="K28" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L28" t="n">
-        <v>241.7250497957894</v>
+        <v>241.7250497957895</v>
       </c>
       <c r="M28" t="n">
         <v>261.3709033556541</v>
@@ -36771,7 +36771,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.20665478932847</v>
+        <v>85.2066547893285</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>417.4518266609708</v>
       </c>
       <c r="L29" t="n">
-        <v>543.8764227450093</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M29" t="n">
         <v>599.9105659802432</v>
@@ -36844,16 +36844,16 @@
         <v>586.4853460004647</v>
       </c>
       <c r="O29" t="n">
-        <v>477.5652927542097</v>
+        <v>506.7021563017996</v>
       </c>
       <c r="P29" t="n">
-        <v>313.119532943079</v>
+        <v>414.887671540583</v>
       </c>
       <c r="Q29" t="n">
         <v>259.2269851044778</v>
       </c>
       <c r="R29" t="n">
-        <v>48.14347974914594</v>
+        <v>19.00661620155585</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>436.2942811356637</v>
       </c>
       <c r="M30" t="n">
-        <v>567.8585998361842</v>
+        <v>67.40369387196488</v>
       </c>
       <c r="N30" t="n">
-        <v>95.96342635147491</v>
+        <v>596.4183323156942</v>
       </c>
       <c r="O30" t="n">
         <v>469.3353133130071</v>
@@ -37069,19 +37069,19 @@
         <v>223.2799997165602</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4518266609708</v>
+        <v>417.4518266609707</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7395591974191</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M32" t="n">
-        <v>498.1424273827393</v>
+        <v>599.9105659802432</v>
       </c>
       <c r="N32" t="n">
         <v>586.4853460004647</v>
       </c>
       <c r="O32" t="n">
-        <v>506.7021563017996</v>
+        <v>477.5652927542092</v>
       </c>
       <c r="P32" t="n">
         <v>414.887671540583</v>
@@ -37090,7 +37090,7 @@
         <v>259.2269851044778</v>
       </c>
       <c r="R32" t="n">
-        <v>48.14347974914594</v>
+        <v>48.14347974914592</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>69.55923098962964</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>436.2942811356637</v>
@@ -37160,13 +37160,13 @@
         <v>596.4183323156942</v>
       </c>
       <c r="O33" t="n">
-        <v>469.3353133130071</v>
+        <v>340.270892956422</v>
       </c>
       <c r="P33" t="n">
         <v>363.8757761779104</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.54067607114011</v>
+        <v>60.5406760711401</v>
       </c>
       <c r="K34" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L34" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957894</v>
       </c>
       <c r="M34" t="n">
         <v>261.3709033556541</v>
@@ -37245,7 +37245,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.2066547893285</v>
+        <v>85.20665478932847</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>442.1082841475054</v>
       </c>
       <c r="M35" t="n">
-        <v>498.1424273827393</v>
+        <v>263.8080958807521</v>
       </c>
       <c r="N35" t="n">
         <v>484.7172074029607</v>
@@ -37321,10 +37321,10 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P35" t="n">
-        <v>236.2440479480653</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>157.4588465069739</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>89.91941669305635</v>
       </c>
       <c r="K36" t="n">
-        <v>281.4710689145777</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>436.2942811356637</v>
+        <v>415.9340954322371</v>
       </c>
       <c r="M36" t="n">
         <v>567.8585998361842</v>
       </c>
       <c r="N36" t="n">
-        <v>95.96342635147515</v>
+        <v>596.4183323156942</v>
       </c>
       <c r="O36" t="n">
         <v>469.3353133130071</v>
@@ -37403,7 +37403,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q36" t="n">
-        <v>198.623651346215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>121.5118611190563</v>
       </c>
       <c r="K38" t="n">
-        <v>202.8612176805349</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L38" t="n">
         <v>442.1082841475054</v>
@@ -37555,13 +37555,13 @@
         <v>484.7172074029607</v>
       </c>
       <c r="O38" t="n">
-        <v>404.9340177042957</v>
+        <v>328.0585327092821</v>
       </c>
       <c r="P38" t="n">
         <v>313.119532943079</v>
       </c>
       <c r="Q38" t="n">
-        <v>157.4588465069739</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>89.91941669305635</v>
       </c>
       <c r="K39" t="n">
-        <v>281.4710689145777</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>436.2942811356637</v>
@@ -37631,10 +37631,10 @@
         <v>567.8585998361842</v>
       </c>
       <c r="N39" t="n">
-        <v>95.96342635147468</v>
+        <v>596.4183323156942</v>
       </c>
       <c r="O39" t="n">
-        <v>469.3353133130071</v>
+        <v>250.3514762633652</v>
       </c>
       <c r="P39" t="n">
         <v>363.8757761779104</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5118611190563</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>315.6836880634668</v>
       </c>
       <c r="L41" t="n">
-        <v>207.7739526455172</v>
+        <v>442.1082841475054</v>
       </c>
       <c r="M41" t="n">
         <v>498.1424273827393</v>
       </c>
       <c r="N41" t="n">
-        <v>484.7172074029607</v>
+        <v>371.8947370200296</v>
       </c>
       <c r="O41" t="n">
         <v>404.9340177042957</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2942811356637</v>
+        <v>224.3824432107153</v>
       </c>
       <c r="M42" t="n">
         <v>567.8585998361842</v>
@@ -37877,7 +37877,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.55923098962926</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>121.5118611190563</v>
       </c>
       <c r="K44" t="n">
-        <v>81.34935656147864</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L44" t="n">
         <v>442.1082841475054</v>
       </c>
       <c r="M44" t="n">
-        <v>498.1424273827393</v>
+        <v>263.8080958807521</v>
       </c>
       <c r="N44" t="n">
         <v>484.7172074029607</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>89.91941669305635</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>217.3104440860218</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2942811356637</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>567.8585998361842</v>
@@ -38114,7 +38114,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.55923098962926</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
